--- a/Docs/Miscelanous/TodoList.xlsx
+++ b/Docs/Miscelanous/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>Task name</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>In First Layer SDD: reconsider the PRF section</t>
+  </si>
+  <si>
+    <t>Init Exceptions</t>
+  </si>
+  <si>
+    <t>We should have a new exception called InitializationException that is thrown whenever the init function doesn't succeed. It collects the actual reason or exception why it didn't succeed and puts that as the message of the exception.</t>
+  </si>
+  <si>
+    <t>Dlog group-- isIdentity()</t>
+  </si>
+  <si>
+    <t>Add  a new function to DlogGroup interface: boolean isIdentity(GroupElement gEl)</t>
   </si>
 </sst>
 </file>
@@ -979,13 +991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1675,6 +1687,48 @@
       </c>
       <c r="D47" s="20"/>
       <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A48" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="23">
+        <v>40948</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" s="19" customFormat="1">
+      <c r="A49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="20">
+        <v>40949</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Miscelanous/TodoList.xlsx
+++ b/Docs/Miscelanous/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t>Task name</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Add  a new function to DlogGroup interface: boolean isIdentity(GroupElement gEl)</t>
+  </si>
+  <si>
+    <t>Dlog group-- source of randomness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where should DlogGroup get the source of randomness from. At the moment, creates whenever needed new SecureRandom </t>
   </si>
 </sst>
 </file>
@@ -991,13 +997,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1720,7 +1726,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="20">
-        <v>40949</v>
+        <v>40948</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>13</v>
@@ -1729,6 +1735,27 @@
         <v>78</v>
       </c>
       <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1">
+      <c r="A50" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="23">
+        <v>40948</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Miscelanous/TodoList.xlsx
+++ b/Docs/Miscelanous/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>Task name</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t xml:space="preserve">Where should DlogGroup get the source of randomness from. At the moment, creates whenever needed new SecureRandom </t>
+  </si>
+  <si>
+    <t>DlogGroup-simultaneous exponentiations</t>
+  </si>
+  <si>
+    <t>This is not really a bug. At the moment we have implemented this function in a naïve way, without the optimization suggested in the book of applied crypto. See if we can optimize.</t>
   </si>
 </sst>
 </file>
@@ -997,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,6 +1762,27 @@
         <v>78</v>
       </c>
       <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A51" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="20">
+        <v>40959</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Miscelanous/TodoList.xlsx
+++ b/Docs/Miscelanous/TodoList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Task name</t>
   </si>
@@ -553,6 +553,30 @@
   </si>
   <si>
     <t>This is not really a bug. At the moment we have implemented this function in a naïve way, without the optimization suggested in the book of applied crypto. See if we can optimize.</t>
+  </si>
+  <si>
+    <t>1. delete the init functions that gets a strings from elliptic curve classes. The init function that gets an algorithmParameterSpec does the same things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. dlogZp - add a class DlogZpRandomParams that hold the numOfBits. </t>
+  </si>
+  <si>
+    <t>3. dlogZp - delete the init function that gets numOfBits. Instead,  the init function that gets the algorithmParameterSpec can get an instance of DlogZpRandomParams. IN this case this init function will act the same as the init that gets the numOfBits.</t>
+  </si>
+  <si>
+    <t>1. delete the init function that gets algorithmParameterSpec.</t>
+  </si>
+  <si>
+    <t>2. add  aclass KeyPairGenerator that gets the name of an algorithm and return a pair of keys to this algorithm. In case the name is Rabin - generate key pair using CryptoPpJavaInterface dll.</t>
+  </si>
+  <si>
+    <t>3.  the init function that gets the keys and an algorithmParameterSpec shouldn't throw an excetion, but ignore the params, as we did in other primitive families.</t>
+  </si>
+  <si>
+    <t>DlogGroup - init functions</t>
+  </si>
+  <si>
+    <t>TrapdoorPermutation - init functions</t>
   </si>
 </sst>
 </file>
@@ -1003,13 +1027,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,6 +1807,72 @@
         <v>78</v>
       </c>
       <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A52" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="23">
+        <v>40965</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1">
+      <c r="A53" s="21"/>
+      <c r="C53" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A54" s="21"/>
+      <c r="C54" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" s="19" customFormat="1">
+      <c r="A55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A56" s="18"/>
+      <c r="C56" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A57" s="18"/>
+      <c r="C57" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="G57" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Miscelanous/TodoList.xlsx
+++ b/Docs/Miscelanous/TodoList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6390" windowWidth="28830" windowHeight="6450"/>
+    <workbookView xWindow="-15" yWindow="6450" windowWidth="28830" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>Task name</t>
   </si>
@@ -303,6 +303,12 @@
     </r>
   </si>
   <si>
+    <t>Owner: The person responsible for solving task.</t>
+  </si>
+  <si>
+    <t>Priority:</t>
+  </si>
+  <si>
     <r>
       <t>·</t>
     </r>
@@ -323,14 +329,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Owner: The person responsible for solving task.</t>
-  </si>
-  <si>
-    <t>Priority:</t>
+      <t>Very Low</t>
+    </r>
   </si>
   <si>
     <r>
@@ -353,7 +353,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Very Low</t>
+      <t>Low</t>
     </r>
   </si>
   <si>
@@ -377,7 +377,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Low</t>
+      <t>Regular</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Regular</t>
+      <t>High Priority</t>
     </r>
   </si>
   <si>
@@ -425,8 +425,113 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>High Priority</t>
-    </r>
+      <t>Urgent</t>
+    </r>
+  </si>
+  <si>
+    <t>SCAPI has to provide a tool for creating a default symmetric/asymmetric encryption</t>
+  </si>
+  <si>
+    <t>Design issue</t>
+  </si>
+  <si>
+    <t>May be there will be a concrete class for each of these families that gets the default parameters from some file and calls constructors as necessary. Or some other solution.</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>In First Layer SDD: in abstract classes paragraph add note that if the abs class has only one function with one line or so, then it is not necessary to have.</t>
+  </si>
+  <si>
+    <t>add implementations for getEncoded() and getFormat() functions of ScRabinPublic/PrivateKey</t>
+  </si>
+  <si>
+    <t>add the missing test vectors</t>
+  </si>
+  <si>
+    <t>The classes that don't have test vectors are DlogZpTest and DlogEcF2mTest</t>
+  </si>
+  <si>
+    <t>Mapping binary string to dlog group</t>
+  </si>
+  <si>
+    <t>1) Add function convertStringToGroupElement(String str) : GroupElement to general DlogGroup interface.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>2) Add function convertByteArrayToGroupElement(Byte[] binaryString) : GroupElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Each implementing class has to implement this because the group element is different and the way to obtain it is different</t>
+  </si>
+  <si>
+    <t>fix 1st layer SDD to have key generation for not widely used algorithms</t>
+  </si>
+  <si>
+    <t>add key generation for algorithms such as - LubyRackoffPrpFromPrfVarying,  IteratedPrfVarying, etc.</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>change Rabin keys to implements KeySpec interface instead of  Key</t>
+  </si>
+  <si>
+    <t>implement  key generation for not widely used algorithms</t>
+  </si>
+  <si>
+    <t>delete getSecretKey functions from primitives layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add concatenation of the underlying algorithm name (if there is one) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">change getAlgorithmName function in the primitives layer </t>
+  </si>
+  <si>
+    <t>in HKDF constructor that gets a hmac name - add a check that the given name is indeed a hmac name</t>
+  </si>
+  <si>
+    <t>moriya</t>
+  </si>
+  <si>
+    <t>1. think may be we want to put the compute block without lengths in the PRP interface and the computeBlock with inut length in the PrfVaryingInputLength instead of in the main PRF interface</t>
+  </si>
+  <si>
+    <t>2. currently we have getBlockSize function in PRF. May be we want to change it to getInputSize and getOutputSize</t>
+  </si>
+  <si>
+    <t>In First Layer SDD: reconsider the PRF section</t>
+  </si>
+  <si>
+    <t>Init Exceptions</t>
+  </si>
+  <si>
+    <t>We should have a new exception called InitializationException that is thrown whenever the init function doesn't succeed. It collects the actual reason or exception why it didn't succeed and puts that as the message of the exception.</t>
+  </si>
+  <si>
+    <t>Dlog group-- isIdentity()</t>
+  </si>
+  <si>
+    <t>Add  a new function to DlogGroup interface: boolean isIdentity(GroupElement gEl)</t>
+  </si>
+  <si>
+    <t>Dlog group-- source of randomness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where should DlogGroup get the source of randomness from. At the moment, creates whenever needed new SecureRandom </t>
+  </si>
+  <si>
+    <t>DlogGroup-simultaneous exponentiations</t>
+  </si>
+  <si>
+    <t>This is not really a bug. At the moment we have implemented this function in a naïve way, without the optimization suggested in the book of applied crypto. See if we can optimize.</t>
+  </si>
+  <si>
+    <t>Rabin Trapdoor permutation</t>
   </si>
   <si>
     <r>
@@ -449,110 +554,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Urgent</t>
-    </r>
-  </si>
-  <si>
-    <t>SCAPI has to provide a tool for creating a default symmetric/asymmetric encryption</t>
-  </si>
-  <si>
-    <t>Design issue</t>
-  </si>
-  <si>
-    <t>May be there will be a concrete class for each of these families that gets the default parameters from some file and calls constructors as necessary. Or some other solution.</t>
-  </si>
-  <si>
-    <t>regular</t>
-  </si>
-  <si>
-    <t>In First Layer SDD: in abstract classes paragraph add note that if the abs class has only one function with one line or so, then it is not necessary to have.</t>
-  </si>
-  <si>
-    <t>add implementations for getEncoded() and getFormat() functions of ScRabinPublic/PrivateKey</t>
-  </si>
-  <si>
-    <t>add the missing test vectors</t>
-  </si>
-  <si>
-    <t>The classes that don't have test vectors are DlogZpTest and DlogEcF2mTest</t>
-  </si>
-  <si>
-    <t>Mapping binary string to dlog group</t>
-  </si>
-  <si>
-    <t>1) Add function convertStringToGroupElement(String str) : GroupElement to general DlogGroup interface.</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>2) Add function convertByteArrayToGroupElement(Byte[] binaryString) : GroupElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Each implementing class has to implement this because the group element is different and the way to obtain it is different</t>
-  </si>
-  <si>
-    <t>fix 1st layer SDD to have key generation for not widely used algorithms</t>
-  </si>
-  <si>
-    <t>add key generation for algorithms such as - LubyRackoffPrpFromPrfVarying,  IteratedPrfVarying, etc.</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>change Rabin keys to implements KeySpec interface instead of  Key</t>
-  </si>
-  <si>
-    <t>implement  key generation for not widely used algorithms</t>
-  </si>
-  <si>
-    <t>delete getSecretKey functions from primitives layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add concatenation of the underlying algorithm name (if there is one) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">change getAlgorithmName function in the primitives layer </t>
-  </si>
-  <si>
-    <t>in HKDF constructor that gets a hmac name - add a check that the given name is indeed a hmac name</t>
-  </si>
-  <si>
-    <t>moriya</t>
-  </si>
-  <si>
-    <t>1. think may be we want to put the compute block without lengths in the PRP interface and the computeBlock with inut length in the PrfVaryingInputLength instead of in the main PRF interface</t>
-  </si>
-  <si>
-    <t>2. currently we have getBlockSize function in PRF. May be we want to change it to getInputSize and getOutputSize</t>
-  </si>
-  <si>
-    <t>In First Layer SDD: reconsider the PRF section</t>
-  </si>
-  <si>
-    <t>Init Exceptions</t>
-  </si>
-  <si>
-    <t>We should have a new exception called InitializationException that is thrown whenever the init function doesn't succeed. It collects the actual reason or exception why it didn't succeed and puts that as the message of the exception.</t>
-  </si>
-  <si>
-    <t>Dlog group-- isIdentity()</t>
-  </si>
-  <si>
-    <t>Add  a new function to DlogGroup interface: boolean isIdentity(GroupElement gEl)</t>
-  </si>
-  <si>
-    <t>Dlog group-- source of randomness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where should DlogGroup get the source of randomness from. At the moment, creates whenever needed new SecureRandom </t>
-  </si>
-  <si>
-    <t>DlogGroup-simultaneous exponentiations</t>
-  </si>
-  <si>
-    <t>This is not really a bug. At the moment we have implemented this function in a naïve way, without the optimization suggested in the book of applied crypto. See if we can optimize.</t>
+      <t> Code review</t>
+    </r>
+  </si>
+  <si>
+    <t>Code review</t>
+  </si>
+  <si>
+    <t>Check if it is possible to implement the init function that gets only the public key as argument as a call to the init(publicKey, privateKey) where privatekey is null. We need to check also in the native code.</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>It could be that the function init(params) has to be changed to generateKey. However, we need to check if it can be done without creating a unneeded native rabin object.</t>
+  </si>
+  <si>
+    <t>DlogGroup - init functions</t>
   </si>
   <si>
     <t>1. delete the init functions that gets a strings from elliptic curve classes. The init function that gets an algorithmParameterSpec does the same things.</t>
@@ -564,6 +582,9 @@
     <t>3. dlogZp - delete the init function that gets numOfBits. Instead,  the init function that gets the algorithmParameterSpec can get an instance of DlogZpRandomParams. IN this case this init function will act the same as the init that gets the numOfBits.</t>
   </si>
   <si>
+    <t>TrapdoorPermutation - init functions</t>
+  </si>
+  <si>
     <t>1. delete the init function that gets algorithmParameterSpec.</t>
   </si>
   <si>
@@ -571,12 +592,6 @@
   </si>
   <si>
     <t>3.  the init function that gets the keys and an algorithmParameterSpec shouldn't throw an excetion, but ignore the params, as we did in other primitive families.</t>
-  </si>
-  <si>
-    <t>DlogGroup - init functions</t>
-  </si>
-  <si>
-    <t>TrapdoorPermutation - init functions</t>
   </si>
 </sst>
 </file>
@@ -668,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -721,11 +736,49 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -738,6 +791,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H76" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:H76"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Task name" dataDxfId="3"/>
+    <tableColumn id="2" name="Category"/>
+    <tableColumn id="3" name="Task description" dataDxfId="2"/>
+    <tableColumn id="4" name="Opening date" dataDxfId="1"/>
+    <tableColumn id="5" name="Owner"/>
+    <tableColumn id="6" name="Priority"/>
+    <tableColumn id="7" name="Closing date" dataDxfId="0"/>
+    <tableColumn id="8" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1027,13 +1097,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,7 +1111,9 @@
     <col min="1" max="1" width="87.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="116.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1073,23 +1145,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="30">
         <v>40848</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1178,7 +1251,7 @@
       <c r="D8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="12" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1">
@@ -1189,7 +1262,7 @@
       <c r="D9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1">
@@ -1221,7 +1294,7 @@
       <c r="D11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="30">
@@ -1239,7 +1312,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1">
@@ -1248,7 +1321,7 @@
       <c r="D13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1">
@@ -1259,7 +1332,7 @@
       <c r="D14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1">
@@ -1268,7 +1341,7 @@
       <c r="D15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1">
@@ -1277,7 +1350,7 @@
       <c r="D16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="9" customFormat="1">
@@ -1498,13 +1571,13 @@
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D33" s="15">
         <v>40881</v>
@@ -1513,16 +1586,16 @@
         <v>13</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="A34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="7">
         <v>40891</v>
@@ -1531,13 +1604,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>50</v>
@@ -1550,10 +1623,10 @@
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1">
       <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D36" s="20">
         <v>40903</v>
@@ -1562,13 +1635,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="23">
         <v>40891</v>
@@ -1577,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="23">
         <v>40904</v>
@@ -1587,7 +1660,7 @@
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="22"/>
@@ -1598,7 +1671,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="22"/>
@@ -1607,10 +1680,10 @@
     </row>
     <row r="40" spans="1:7" s="19" customFormat="1">
       <c r="A40" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="D40" s="20">
         <v>40909</v>
@@ -1619,7 +1692,7 @@
     </row>
     <row r="41" spans="1:7" s="22" customFormat="1">
       <c r="A41" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>17</v>
@@ -1629,13 +1702,13 @@
         <v>40909</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" s="19" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>35</v>
@@ -1645,13 +1718,13 @@
         <v>40909</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" s="22" customFormat="1">
       <c r="A43" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>50</v>
@@ -1661,10 +1734,10 @@
         <v>40910</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="23">
         <v>40912</v>
@@ -1672,25 +1745,25 @@
     </row>
     <row r="44" spans="1:7" s="19" customFormat="1">
       <c r="A44" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="20">
         <v>40911</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A45" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>50</v>
@@ -1703,13 +1776,13 @@
     </row>
     <row r="46" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A46" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="27">
         <v>40931</v>
@@ -1719,20 +1792,20 @@
     <row r="47" spans="1:7" s="19" customFormat="1">
       <c r="A47" s="18"/>
       <c r="C47" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="20"/>
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A48" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="23">
         <v>40948</v>
@@ -1741,19 +1814,19 @@
         <v>13</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" s="19" customFormat="1">
       <c r="A49" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="20">
         <v>40948</v>
@@ -1762,19 +1835,19 @@
         <v>13</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" s="22" customFormat="1">
       <c r="A50" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="23">
         <v>40948</v>
@@ -1783,19 +1856,19 @@
         <v>13</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7" s="19" customFormat="1" ht="30">
       <c r="A51" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="20">
         <v>40959</v>
@@ -1804,79 +1877,124 @@
         <v>13</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" s="22" customFormat="1" ht="30">
       <c r="A52" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="23">
+        <v>40960</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A53" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="20">
+        <v>40960</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A54" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="D54" s="23">
+        <v>40965</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" s="22" customFormat="1">
+      <c r="A55" s="21"/>
+      <c r="C55" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" s="22" customFormat="1" ht="30">
+      <c r="A56" s="21"/>
+      <c r="C56" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" s="19" customFormat="1">
+      <c r="A57" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="23">
-        <v>40965</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" s="22" customFormat="1">
-      <c r="A53" s="21"/>
-      <c r="C53" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" s="22" customFormat="1" ht="30">
-      <c r="A54" s="21"/>
-      <c r="C54" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" s="19" customFormat="1">
-      <c r="A55" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" s="19" customFormat="1" ht="30">
-      <c r="A56" s="18"/>
-      <c r="C56" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" s="19" customFormat="1" ht="30">
-      <c r="A57" s="18"/>
       <c r="C57" s="18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D57" s="20"/>
       <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A58" s="18"/>
+      <c r="C58" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" s="19" customFormat="1" ht="30">
+      <c r="A59" s="18"/>
+      <c r="C59" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="G59" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
